--- a/mydb.xlsx
+++ b/mydb.xlsx
@@ -446,25 +446,25 @@
         <v>Approval_ID</v>
       </c>
       <c r="B2" t="str">
+        <v>Claim_ID</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Device_Registration_ID</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Device_Install_ID</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Device_Transfer_ID</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Device_Retrieval_ID</v>
+      </c>
+      <c r="G2" t="str">
         <v>Approval_Status</v>
       </c>
-      <c r="C2" t="str">
-        <v>Claim_ID</v>
-      </c>
-      <c r="D2" t="str">
+      <c r="H2" t="str">
         <v>Details</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Device_Install_ID</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Device_Registration_ID</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Device_Retrieval_ID</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Device_Transfer_ID</v>
       </c>
     </row>
   </sheetData>
@@ -491,19 +491,19 @@
         <v>Customer_ID</v>
       </c>
       <c r="B2" t="str">
+        <v>Parent_Customer_ID</v>
+      </c>
+      <c r="C2" t="str">
         <v>Customer_Name</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
         <v>Customer_Rate_ID</v>
       </c>
-      <c r="D2" t="str">
-        <v>Parent_Customer_ID</v>
-      </c>
       <c r="E2" t="str">
+        <v>RemoteSupport</v>
+      </c>
+      <c r="F2" t="str">
         <v>Push_Alert</v>
-      </c>
-      <c r="F2" t="str">
-        <v>RemoteSupport</v>
       </c>
     </row>
     <row r="3">
@@ -772,28 +772,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Area_ID</v>
+        <v>Customer_Location_ID</v>
       </c>
       <c r="B2" t="str">
         <v>Customer_ID</v>
       </c>
       <c r="C2" t="str">
-        <v>Customer_Location_ID</v>
+        <v>Customer_Location_Name</v>
       </c>
       <c r="D2" t="str">
-        <v>Customer_Location_Name</v>
+        <v>Customer_Location_Rate_ID</v>
       </c>
       <c r="E2" t="str">
-        <v>Customer_Location_Rate_ID</v>
+        <v>Area_ID</v>
       </c>
       <c r="F2" t="str">
+        <v>Use_Status</v>
+      </c>
+      <c r="G2" t="str">
         <v>Details</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <v>Managed_Department_ID</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Use_Status</v>
       </c>
     </row>
     <row r="3">
@@ -866,10 +866,10 @@
         <v>Customer_Rate_ID</v>
       </c>
       <c r="B2" t="str">
+        <v>Rate_Type</v>
+      </c>
+      <c r="C2" t="str">
         <v>Rate_Details_Info</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Rate_Type</v>
       </c>
     </row>
     <row r="3">
@@ -944,10 +944,10 @@
         <v>Customer_Rate_ID</v>
       </c>
       <c r="B2" t="str">
+        <v>Rate_Type</v>
+      </c>
+      <c r="C2" t="str">
         <v>Rate_Details_Info</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Rate_Type</v>
       </c>
     </row>
     <row r="3">
@@ -1040,10 +1040,10 @@
         <v>Department_ID</v>
       </c>
       <c r="B2" t="str">
+        <v>Parent_Department_ID</v>
+      </c>
+      <c r="C2" t="str">
         <v>Department_Name</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Parent_Department_ID</v>
       </c>
     </row>
     <row r="3">
@@ -1226,34 +1226,34 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Device_ID</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Device_Model_ID</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Serial_Num</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Mac</v>
+      </c>
+      <c r="E2" t="str">
+        <v>FL</v>
+      </c>
+      <c r="F2" t="str">
+        <v>FS</v>
+      </c>
+      <c r="G2" t="str">
         <v>BL</v>
       </c>
-      <c r="B2" t="str">
+      <c r="H2" t="str">
         <v>BS</v>
       </c>
-      <c r="C2" t="str">
+      <c r="I2" t="str">
+        <v>Department_ID</v>
+      </c>
+      <c r="J2" t="str">
         <v>Condition</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Department_ID</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Device_ID</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Device_Model_ID</v>
-      </c>
-      <c r="G2" t="str">
-        <v>FL</v>
-      </c>
-      <c r="H2" t="str">
-        <v>FS</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Mac</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Serial_Num</v>
       </c>
     </row>
     <row r="3">
@@ -1337,28 +1337,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>History_ID</v>
+      </c>
+      <c r="B2" t="str">
         <v>Device_ID</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
+        <v>Registration_Date</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Modified_Date</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Modification_Details</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Location_ID</v>
+      </c>
+      <c r="G2" t="str">
         <v>Device_Position_Details</v>
       </c>
-      <c r="C2" t="str">
+      <c r="H2" t="str">
         <v>Enable</v>
-      </c>
-      <c r="D2" t="str">
-        <v>History_ID</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Location_ID</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Modification_Details</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Modified_Date</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Registration_Date</v>
       </c>
     </row>
     <row r="3">
@@ -1460,10 +1460,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Storage_ID</v>
+      </c>
+      <c r="B2" t="str">
         <v>Device_ID</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Storage_ID</v>
       </c>
     </row>
     <row r="3">
@@ -1495,16 +1495,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Device_Model_ID</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Manufacturer</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Model_Name</v>
+      </c>
+      <c r="D2" t="str">
         <v>Color_Support</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Device_Model_ID</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Manufacturer</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Model_Name</v>
       </c>
     </row>
     <row r="3">
@@ -1783,10 +1783,10 @@
         <v>Area_ID</v>
       </c>
       <c r="B2" t="str">
+        <v>Sido</v>
+      </c>
+      <c r="C2" t="str">
         <v>si_gun_gu</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Sido</v>
       </c>
     </row>
     <row r="3">
@@ -4362,10 +4362,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Device_Model_ID</v>
+      </c>
+      <c r="B2" t="str">
         <v>Consumable_Supply_ID</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Device_Model_ID</v>
       </c>
     </row>
   </sheetData>
@@ -4416,10 +4416,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Device_Transfer_ID</v>
+      </c>
+      <c r="B2" t="str">
         <v>Device_Device_ID</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Device_Transfer_ID</v>
       </c>
       <c r="C2" t="str">
         <v>Location_Location_ID</v>
@@ -4449,13 +4449,13 @@
         <v>Device_Model_ID</v>
       </c>
       <c r="B2" t="str">
+        <v>Manufacturer</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Printer_Language</v>
+      </c>
+      <c r="D2" t="str">
         <v>Install_File_Address</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Manufacturer</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Printer_Language</v>
       </c>
     </row>
   </sheetData>
@@ -4479,40 +4479,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Employee_ID</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Employee_Name</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Password</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Phone_Num</v>
+      </c>
+      <c r="E2" t="str">
         <v>Corded_Phone_Num</v>
       </c>
-      <c r="B2" t="str">
+      <c r="F2" t="str">
+        <v>Email</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Position_ID</v>
+      </c>
+      <c r="H2" t="str">
         <v>Department_ID</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Edit_Date</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Email</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Employee_ID</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Employee_Name</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Is_Active</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Password</v>
       </c>
       <c r="I2" t="str">
         <v>Permission_ID</v>
       </c>
       <c r="J2" t="str">
-        <v>Phone_Num</v>
+        <v>Situation_ID</v>
       </c>
       <c r="K2" t="str">
-        <v>Position_ID</v>
+        <v>Is_Active</v>
       </c>
       <c r="L2" t="str">
-        <v>Situation_ID</v>
+        <v>Edit_Date</v>
       </c>
     </row>
     <row r="3">
@@ -5163,25 +5163,25 @@
         <v>Device_ID</v>
       </c>
       <c r="B2" t="str">
+        <v>Employee_ID</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Manage_Num</v>
+      </c>
+      <c r="D2" t="str">
+        <v>IpAddress</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Subnet</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Gateway</v>
+      </c>
+      <c r="G2" t="str">
         <v>DNS1</v>
       </c>
-      <c r="C2" t="str">
+      <c r="H2" t="str">
         <v>DNS2</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Employee_ID</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Gateway</v>
-      </c>
-      <c r="F2" t="str">
-        <v>IpAddress</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Manage_Num</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Subnet</v>
       </c>
     </row>
   </sheetData>
@@ -5205,13 +5205,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Location_ID</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Location_Type</v>
+      </c>
+      <c r="C2" t="str">
         <v>Customer_Location_ID</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Location_ID</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Location_Type</v>
       </c>
       <c r="D2" t="str">
         <v>Storage_ID</v>
@@ -5288,13 +5288,13 @@
         <v>Option_Name</v>
       </c>
       <c r="C2" t="str">
+        <v>Option_Type</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Serial_Num</v>
+      </c>
+      <c r="E2" t="str">
         <v>Option_Position</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Option_Type</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Serial_Num</v>
       </c>
     </row>
   </sheetData>
@@ -5321,19 +5321,19 @@
         <v>Call_log_ID</v>
       </c>
       <c r="B2" t="str">
+        <v>Employee_ID</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Time_Stamp</v>
+      </c>
+      <c r="D2" t="str">
         <v>Call_Manage_CM_ID</v>
       </c>
-      <c r="C2" t="str">
+      <c r="E2" t="str">
+        <v>Transfer_Department_ID</v>
+      </c>
+      <c r="F2" t="str">
         <v>Detail</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Employee_ID</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Time_Stamp</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Transfer_Department_ID</v>
       </c>
     </row>
   </sheetData>
@@ -5384,16 +5384,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Permission_ID</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Permission_Name</v>
+      </c>
+      <c r="C2" t="str">
+        <v>permission_type</v>
+      </c>
+      <c r="D2" t="str">
         <v>Permission_Description</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Permission_ID</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Permission_Name</v>
-      </c>
-      <c r="D2" t="str">
-        <v>permission_type</v>
       </c>
     </row>
     <row r="3">
@@ -5459,10 +5459,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Reception_ID</v>
+      </c>
+      <c r="B2" t="str">
         <v>Parent_Reception_ID</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Reception_ID</v>
       </c>
       <c r="C2" t="str">
         <v>Reception_Name</v>
@@ -5826,16 +5826,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Storage_ID</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Storage_Location</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Storage_Detail</v>
+      </c>
+      <c r="D2" t="str">
         <v>Department_ID</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Storage_Detail</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Storage_ID</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Storage_Location</v>
       </c>
     </row>
     <row r="3">
@@ -5892,10 +5892,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Storage_Storage_ID</v>
+      </c>
+      <c r="B2" t="str">
         <v>Option_Option_ID</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Storage_Storage_ID</v>
       </c>
     </row>
   </sheetData>
@@ -5919,13 +5919,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Black_Consumer</v>
+        <v>CM_ID</v>
       </c>
       <c r="B2" t="str">
-        <v>Call_State</v>
+        <v>Device_ID</v>
       </c>
       <c r="C2" t="str">
-        <v>CM_ID</v>
+        <v>Reception_ID</v>
       </c>
       <c r="D2" t="str">
         <v>Customer_Name</v>
@@ -5934,10 +5934,10 @@
         <v>Customer_Num</v>
       </c>
       <c r="F2" t="str">
-        <v>Device_ID</v>
+        <v>Black_Consumer</v>
       </c>
       <c r="G2" t="str">
-        <v>Reception_ID</v>
+        <v>Call_State</v>
       </c>
     </row>
   </sheetData>
@@ -5961,85 +5961,85 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Check_ID</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Device_ID</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Visit_Date</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Visit_Type</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Visit_Case</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Disability_Type</v>
+      </c>
+      <c r="G2" t="str">
+        <v>FL</v>
+      </c>
+      <c r="H2" t="str">
+        <v>FS</v>
+      </c>
+      <c r="I2" t="str">
         <v>BL</v>
       </c>
-      <c r="B2" t="str">
+      <c r="J2" t="str">
         <v>BS</v>
       </c>
-      <c r="C2" t="str">
-        <v>Check_ID</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Device_ID</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Disability_Type</v>
-      </c>
-      <c r="F2" t="str">
+      <c r="K2" t="str">
+        <v>Toner_Count_YE</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Toner_Count_MA</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Toner_Count_CY</v>
+      </c>
+      <c r="N2" t="str">
+        <v>Toner_Count_BK</v>
+      </c>
+      <c r="O2" t="str">
+        <v>Toner_Stock_YE</v>
+      </c>
+      <c r="P2" t="str">
+        <v>Toner_Stock_MA</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>Toner_Stock_CY</v>
+      </c>
+      <c r="R2" t="str">
+        <v>Toner_Stock_BK</v>
+      </c>
+      <c r="S2" t="str">
+        <v>Toner_Deliver_YE</v>
+      </c>
+      <c r="T2" t="str">
+        <v>Toner_Deliver_CY</v>
+      </c>
+      <c r="U2" t="str">
+        <v>Toner_Deliver_MA</v>
+      </c>
+      <c r="V2" t="str">
+        <v>Toner_Deliver_BK</v>
+      </c>
+      <c r="W2" t="str">
+        <v>Drum_Count_YE</v>
+      </c>
+      <c r="X2" t="str">
+        <v>Drum_Count_MA</v>
+      </c>
+      <c r="Y2" t="str">
+        <v>Drum_Count_CY</v>
+      </c>
+      <c r="Z2" t="str">
         <v>Drum_Count_BK</v>
       </c>
-      <c r="G2" t="str">
-        <v>Drum_Count_CY</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Drum_Count_MA</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Drum_Count_YE</v>
-      </c>
-      <c r="J2" t="str">
+      <c r="AA2" t="str">
         <v>Drum_Replacement</v>
-      </c>
-      <c r="K2" t="str">
-        <v>FL</v>
-      </c>
-      <c r="L2" t="str">
-        <v>FS</v>
-      </c>
-      <c r="M2" t="str">
-        <v>Toner_Count_BK</v>
-      </c>
-      <c r="N2" t="str">
-        <v>Toner_Count_CY</v>
-      </c>
-      <c r="O2" t="str">
-        <v>Toner_Count_MA</v>
-      </c>
-      <c r="P2" t="str">
-        <v>Toner_Count_YE</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>Toner_Deliver_BK</v>
-      </c>
-      <c r="R2" t="str">
-        <v>Toner_Deliver_CY</v>
-      </c>
-      <c r="S2" t="str">
-        <v>Toner_Deliver_MA</v>
-      </c>
-      <c r="T2" t="str">
-        <v>Toner_Deliver_YE</v>
-      </c>
-      <c r="U2" t="str">
-        <v>Toner_Stock_BK</v>
-      </c>
-      <c r="V2" t="str">
-        <v>Toner_Stock_CY</v>
-      </c>
-      <c r="W2" t="str">
-        <v>Toner_Stock_MA</v>
-      </c>
-      <c r="X2" t="str">
-        <v>Toner_Stock_YE</v>
-      </c>
-      <c r="Y2" t="str">
-        <v>Visit_Case</v>
-      </c>
-      <c r="Z2" t="str">
-        <v>Visit_Date</v>
-      </c>
-      <c r="AA2" t="str">
-        <v>Visit_Type</v>
       </c>
     </row>
   </sheetData>
@@ -6117,28 +6117,28 @@
         <v>Client_ID</v>
       </c>
       <c r="B2" t="str">
+        <v>Name</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Email</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Phone_Num</v>
+      </c>
+      <c r="E2" t="str">
         <v>Corded_Phone_Num</v>
       </c>
-      <c r="C2" t="str">
+      <c r="F2" t="str">
+        <v>password</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Is_Active</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Is_Sms</v>
+      </c>
+      <c r="I2" t="str">
         <v>Customer_Location_ID</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Email</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Is_Active</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Is_Sms</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Name</v>
-      </c>
-      <c r="H2" t="str">
-        <v>password</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Phone_Num</v>
       </c>
     </row>
   </sheetData>
@@ -6168,16 +6168,16 @@
         <v>Manufacturer</v>
       </c>
       <c r="C2" t="str">
+        <v>Supply_Separate</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Supply_Name</v>
+      </c>
+      <c r="E2" t="str">
         <v>Supply_Detail</v>
       </c>
-      <c r="D2" t="str">
+      <c r="F2" t="str">
         <v>Supply_Erp_ID</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Supply_Name</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Supply_Separate</v>
       </c>
     </row>
   </sheetData>

--- a/mydb.xlsx
+++ b/mydb.xlsx
@@ -1483,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1759,9 +1759,37 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="str">
+        <v>삼성</v>
+      </c>
+      <c r="C21" t="str">
+        <v>SL-M4350ND</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="str">
+        <v>캐논</v>
+      </c>
+      <c r="C22" t="str">
+        <v>GM4090</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D22"/>
   </ignoredErrors>
 </worksheet>
 </file>
